--- a/src/main/resources/products.xlsx
+++ b/src/main/resources/products.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\IdeaProjects\BttConnect\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8812D026-E0EA-4728-9C65-98898F7C41F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB6AEF-2E60-4A46-BDCC-E6D2EA53023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9E5358B7-4261-4E7D-9FD4-36AA51078475}"/>
+    <workbookView xWindow="4485" yWindow="1170" windowWidth="21600" windowHeight="13275" activeTab="2" xr2:uid="{9E5358B7-4261-4E7D-9FD4-36AA51078475}"/>
   </bookViews>
   <sheets>
     <sheet name="AC10_IP20" sheetId="3" r:id="rId1"/>
     <sheet name="AC10_IP66" sheetId="4" r:id="rId2"/>
-    <sheet name="AC_30" sheetId="5" r:id="rId3"/>
+    <sheet name="AC30" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DaneZewnętrzne_2" localSheetId="0" hidden="1">AC10_IP20!$A$1:$E$33</definedName>
@@ -498,9 +498,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -512,6 +509,9 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -593,40 +593,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38BC1A41-5DE0-4E5C-B3F8-A7C0726E9F46}" name="Falowniki_Parker_AC10__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_hamowa" displayName="Falowniki_Parker_AC10__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_hamowa" ref="A1:E33" tableType="queryTable" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38BC1A41-5DE0-4E5C-B3F8-A7C0726E9F46}" name="Falowniki_Parker_AC10__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_hamowa" displayName="Falowniki_Parker_AC10__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_hamowa" ref="A1:E33" tableType="queryTable" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:E33" xr:uid="{38BC1A41-5DE0-4E5C-B3F8-A7C0726E9F46}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{70C2E316-42A9-4B4C-B05C-50BD7CB3575C}" uniqueName="2" name="Parts" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{FA0AB478-B4C0-400E-967F-CECBAE007167}" uniqueName="3" name="Moc [kW]" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7E3F62B2-DEFB-4977-8D48-C748EF88F400}" uniqueName="4" name="Prąd [A]" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{60DFC5B5-8DFF-459B-811F-48DEED76AC15}" uniqueName="5" name="Wymiary" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{A8E6FB12-B5AD-45AC-B49C-E78DC9D120CB}" uniqueName="6" name="Zasilanie [V]" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{70C2E316-42A9-4B4C-B05C-50BD7CB3575C}" uniqueName="2" name="Parts" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FA0AB478-B4C0-400E-967F-CECBAE007167}" uniqueName="3" name="Moc [kW]" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7E3F62B2-DEFB-4977-8D48-C748EF88F400}" uniqueName="4" name="Prąd [A]" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{60DFC5B5-8DFF-459B-811F-48DEED76AC15}" uniqueName="5" name="Wymiary" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A8E6FB12-B5AD-45AC-B49C-E78DC9D120CB}" uniqueName="6" name="Zasilanie [V]" queryTableFieldId="6" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B6216AD-EC65-4683-9451-AFE2E3BF1CAE}" name="Falowniki_Parker_AC10_IP66__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_h" displayName="Falowniki_Parker_AC10_IP66__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_h" ref="A1:E22" tableType="queryTable" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B6216AD-EC65-4683-9451-AFE2E3BF1CAE}" name="Falowniki_Parker_AC10_IP66__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_h" displayName="Falowniki_Parker_AC10_IP66__1x230V____3x230V____wbudowany_filtr_EMC_C3_i_moduł_h" ref="A1:E22" tableType="queryTable" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:E22" xr:uid="{1B6216AD-EC65-4683-9451-AFE2E3BF1CAE}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D1A9F1AE-4CFE-4141-B1C3-C62FD261259A}" uniqueName="2" name="Parts" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EE1B9563-089B-4780-9AE3-785F250CC61A}" uniqueName="3" name="Moc [kW]" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A3541253-426D-4D88-B8FF-93A3D52C33A3}" uniqueName="4" name="Prąd [A]" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{77F06E59-433D-4050-A384-C61B90A86140}" uniqueName="5" name="Wymiary" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{43EA73D3-4899-47C6-BFE2-88FF2339B6AB}" uniqueName="6" name="Zasilanie [V]" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D1A9F1AE-4CFE-4141-B1C3-C62FD261259A}" uniqueName="2" name="Parts" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EE1B9563-089B-4780-9AE3-785F250CC61A}" uniqueName="3" name="Moc [kW]" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A3541253-426D-4D88-B8FF-93A3D52C33A3}" uniqueName="4" name="Prąd [A]" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{77F06E59-433D-4050-A384-C61B90A86140}" uniqueName="5" name="Wymiary" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{43EA73D3-4899-47C6-BFE2-88FF2339B6AB}" uniqueName="6" name="Zasilanie [V]" queryTableFieldId="6" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{59F6E02E-484F-42AC-A582-A51DC0096454}" name="Tabela3" displayName="Tabela3" ref="A1:C46" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{59F6E02E-484F-42AC-A582-A51DC0096454}" name="Tabela3" displayName="Tabela3" ref="A1:C46" totalsRowShown="0" dataDxfId="3" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
   <autoFilter ref="A1:C46" xr:uid="{59F6E02E-484F-42AC-A582-A51DC0096454}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AA2B4810-F5B6-41BF-A4E6-D25AE7F1CEFF}" name="Parts" dataDxfId="3" dataCellStyle="Normalny"/>
-    <tableColumn id="2" xr3:uid="{0DD31208-4C4B-4758-8250-C914282CB586}" name="Output kW Rating (Normal Duty)" dataDxfId="2" dataCellStyle="Normalny"/>
-    <tableColumn id="3" xr3:uid="{6D8A2090-63F9-4000-91CB-5299905E4E43}" name="EMC Filter Included" dataDxfId="1" dataCellStyle="Normalny"/>
+    <tableColumn id="1" xr3:uid="{AA2B4810-F5B6-41BF-A4E6-D25AE7F1CEFF}" name="Parts" dataDxfId="2" dataCellStyle="Normalny"/>
+    <tableColumn id="2" xr3:uid="{0DD31208-4C4B-4758-8250-C914282CB586}" name="Output kW Rating (Normal Duty)" dataDxfId="1" dataCellStyle="Normalny"/>
+    <tableColumn id="3" xr3:uid="{6D8A2090-63F9-4000-91CB-5299905E4E43}" name="EMC Filter Included" dataDxfId="0" dataCellStyle="Normalny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6027266-424C-4D6F-81E0-04A8EF2A8BFF}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
